--- a/Tiffin/Tiffin-ordered.xlsx
+++ b/Tiffin/Tiffin-ordered.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\neosoft-office-learning\Tiffin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\navneetgitbackups@gmail.com\neosoft-office-learning\Tiffin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tiffins - Buy" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tiffins - Buy'!$A$5:$AI$9</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>S.No</t>
   </si>
@@ -38,10 +41,40 @@
     <t>March</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>April</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total Tifins</t>
+  </si>
+  <si>
+    <t>Not Paid</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Amount Pending</t>
   </si>
 </sst>
 </file>
@@ -57,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,6 +100,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,13 +137,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,165 +431,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AH6"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="V2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="34" width="9.140625" style="2"/>
+    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
+    <col min="2" max="35" width="9.140625" style="2"/>
+    <col min="37" max="37" width="12.140625" style="4" customWidth="1"/>
+    <col min="38" max="40" width="9.140625" style="4"/>
+    <col min="41" max="41" width="19.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H5" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I5" s="1">
         <v>5</v>
       </c>
-      <c r="I4" s="1">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="J5" s="1">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1">
         <v>7</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L5" s="1">
         <v>8</v>
       </c>
-      <c r="L4" s="1">
-        <v>9</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="M5" s="1">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1">
         <v>10</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O5" s="1">
         <v>11</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P5" s="1">
         <v>12</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q5" s="1">
         <v>13</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R5" s="1">
         <v>14</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S5" s="1">
         <v>15</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T5" s="1">
         <v>16</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U5" s="1">
         <v>17</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V5" s="1">
         <v>18</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W5" s="1">
         <v>19</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X5" s="1">
         <v>20</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y5" s="1">
         <v>21</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Z5" s="1">
         <v>22</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AA5" s="1">
         <v>23</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AB5" s="1">
         <v>24</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC5" s="1">
         <v>25</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD5" s="1">
         <v>26</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AE5" s="1">
         <v>27</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF5" s="1">
         <v>28</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG5" s="1">
         <v>29</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH5" s="1">
         <v>30</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI5" s="1">
         <v>31</v>
       </c>
+      <c r="AK5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2023</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>2023</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="4">
+        <f>COUNTIFS(E6:AI6,$B$3)</f>
+        <v>2</v>
+      </c>
+      <c r="AL6" s="4">
+        <f>COUNTIFS(E6:AI6,$B$3,E7:AI7,$B$2)</f>
+        <v>2</v>
+      </c>
+      <c r="AM6" s="4">
+        <f>AK6 - AL6</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="4">
+        <f>AM6 * $B$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>4</v>
+      <c r="C8" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK8" s="4">
+        <f>COUNTIFS(E8:AI8,$B$3)</f>
+        <v>9</v>
+      </c>
+      <c r="AL8" s="4">
+        <f>COUNTIFS(E8:AI8,$B$3,E9:AI9,$B$2)</f>
+        <v>8</v>
+      </c>
+      <c r="AM8" s="4">
+        <f>AK8 - AL8</f>
+        <v>1</v>
+      </c>
+      <c r="AO8" s="4">
+        <f>AM8 * $B$1</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:AI9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tiffin/Tiffin-ordered.xlsx
+++ b/Tiffin/Tiffin-ordered.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>S.No</t>
   </si>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,9 +673,12 @@
       <c r="M8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="N8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="AK8" s="4">
         <f>COUNTIFS(E8:AI8,$B$3)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL8" s="4">
         <f>COUNTIFS(E8:AI8,$B$3,E9:AI9,$B$2)</f>
@@ -683,11 +686,11 @@
       </c>
       <c r="AM8" s="4">
         <f>AK8 - AL8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO8" s="4">
         <f>AM8 * $B$1</f>
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">

--- a/Tiffin/Tiffin-ordered.xlsx
+++ b/Tiffin/Tiffin-ordered.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\navneetgitbackups@gmail.com\neosoft-office-learning\Tiffin\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA324A23-3710-4AB1-87B0-218206943A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiffins - Buy" sheetId="2" r:id="rId1"/>
@@ -17,17 +18,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tiffins - Buy'!$A$5:$AI$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>S.No</t>
   </si>
@@ -75,12 +85,30 @@
   </si>
   <si>
     <t>Amount Pending</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Tiffins</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Ammount</t>
+  </si>
+  <si>
+    <t>Total Ammount To Pay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +177,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,11 +464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,19 +476,30 @@
     <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
     <col min="2" max="35" width="9.140625" style="2"/>
     <col min="37" max="37" width="12.140625" style="4" customWidth="1"/>
-    <col min="38" max="40" width="9.140625" style="4"/>
-    <col min="41" max="41" width="19.5703125" style="4" customWidth="1"/>
+    <col min="38" max="39" width="9.140625" style="4"/>
+    <col min="40" max="40" width="22.28515625" style="4" customWidth="1"/>
+    <col min="42" max="42" width="10.140625" customWidth="1"/>
+    <col min="44" max="44" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" style="4" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="2">
         <v>70</v>
       </c>
+      <c r="AN1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO1">
+        <f>IF(AT6&gt;0,AN8+AT6,AN8)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -462,7 +507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -470,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,11 +627,26 @@
       <c r="AM5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AO5" s="4" t="s">
+      <c r="AN5" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="AP5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -617,12 +677,29 @@
         <f>AK6 - AL6</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AN6" s="4">
         <f>AM6 * $B$1</f>
         <v>0</v>
       </c>
+      <c r="AP6" s="6">
+        <f ca="1">TODAY()</f>
+        <v>45031</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="4">
+        <f>IF(AS6="",AQ6*$B$1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
@@ -633,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -676,24 +753,30 @@
       <c r="N8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="O8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="AK8" s="4">
         <f>COUNTIFS(E8:AI8,$B$3)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL8" s="4">
         <f>COUNTIFS(E8:AI8,$B$3,E9:AI9,$B$2)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AM8" s="4">
         <f>AK8 - AL8</f>
-        <v>2</v>
-      </c>
-      <c r="AO8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="4">
         <f>AM8 * $B$1</f>
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
@@ -721,9 +804,24 @@
       <c r="L9" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="M9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="J16" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:AI9"/>
+  <autoFilter ref="A5:AI9" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tiffin/Tiffin-ordered.xlsx
+++ b/Tiffin/Tiffin-ordered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\navneetgitbackups@gmail.com\neosoft-office-learning\Tiffin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA324A23-3710-4AB1-87B0-218206943A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DD8119-279F-4517-8C4B-257B1C0192C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
   <si>
     <t>S.No</t>
   </si>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
       </c>
       <c r="AO1">
         <f>IF(AT6&gt;0,AN8+AT6,AN8)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
       </c>
       <c r="AP6" s="6">
         <f ca="1">TODAY()</f>
-        <v>45031</v>
+        <v>45033</v>
       </c>
       <c r="AQ6" s="4">
         <v>1</v>
@@ -759,9 +759,24 @@
       <c r="P8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="Q8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="AK8" s="4">
         <f>COUNTIFS(E8:AI8,$B$3)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AL8" s="4">
         <f>COUNTIFS(E8:AI8,$B$3,E9:AI9,$B$2)</f>
@@ -769,11 +784,11 @@
       </c>
       <c r="AM8" s="4">
         <f>AK8 - AL8</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN8" s="4">
         <f>AM8 * $B$1</f>
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">

--- a/Tiffin/Tiffin-ordered.xlsx
+++ b/Tiffin/Tiffin-ordered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\navneetgitbackups@gmail.com\neosoft-office-learning\Tiffin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DD8119-279F-4517-8C4B-257B1C0192C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F525076-3E75-435C-B0EA-1680E450F87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t>S.No</t>
   </si>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
       </c>
       <c r="AO1">
         <f>IF(AT6&gt;0,AN8+AT6,AN8)</f>
-        <v>350</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
       </c>
       <c r="AP6" s="6">
         <f ca="1">TODAY()</f>
-        <v>45033</v>
+        <v>45037</v>
       </c>
       <c r="AQ6" s="4">
         <v>1</v>
@@ -759,12 +759,6 @@
       <c r="P8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="S8" s="2" t="s">
         <v>6</v>
       </c>
@@ -772,23 +766,32 @@
         <v>6</v>
       </c>
       <c r="U8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="AK8" s="4">
         <f>COUNTIFS(E8:AI8,$B$3)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL8" s="4">
         <f>COUNTIFS(E8:AI8,$B$3,E9:AI9,$B$2)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AM8" s="4">
         <f>AK8 - AL8</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN8" s="4">
         <f>AM8 * $B$1</f>
-        <v>350</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
@@ -829,6 +832,18 @@
         <v>9</v>
       </c>
       <c r="P9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
